--- a/biology/Botanique/Jardin_Jane-Vialle/Jardin_Jane-Vialle.xlsx
+++ b/biology/Botanique/Jardin_Jane-Vialle/Jardin_Jane-Vialle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Jane Vialle est un parc du 18e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est situé au 122, rue des Poissonniers.
 </t>
@@ -543,10 +557,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc a été inauguré en 2014 sous le nom de square du 122 rue des Poissonniers.
-Le 19 novembre 2021, le jardin est renommé en mémoire de Jane Vialle (1906-1953), journaliste, résistante et femme politique française[1].
+Le 19 novembre 2021, le jardin est renommé en mémoire de Jane Vialle (1906-1953), journaliste, résistante et femme politique française.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Équipements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On y trouve deux espaces de jeux : un pour les enfants âgés de 2 à 6 ans et un autre pour les jeunes de 6 à 12 ans.
 </t>
